--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -493,37 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-21</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Kolkata</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Banglore</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mumbai → New Delhi</t>
+          <t>Kolkata → Bangalore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>23h</t>
+          <t>4h</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>In-flight meal not included</t>
+          <t>1 Long layover</t>
         </is>
       </c>
     </row>
